--- a/VersionRecords/Version hotfix160718/定时器/新增定时器.xlsx
+++ b/VersionRecords/Version hotfix160718/定时器/新增定时器.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12990" tabRatio="185"/>
+    <workbookView windowWidth="28080" windowHeight="12990" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>更新自营房</t>
     </r>
     <r>
@@ -141,12 +147,13 @@
     <t>com.mogoroom.tasktracker.task.UpdateRoomPriceTask</t>
   </si>
   <si>
-    <t>{"taskImpl": "com.mogoroom.tasktracker.task.UpdateRoomPriceTask",
-      "roomIds": "bysql",
-      "fetchRoomIdSql": " SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` = 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 AND fr.`onlineStatus` = 1 AND (fr.`mogoOfflineEndTime` IS NULL OR fr.`mogoOfflineEndTime` &lt; NOW()) AND (fr.`lockTime` IS NULL OR fr.`lockTime` &lt; NOW())",
-      "payTypeId", "1",
-       "newPrice", "105%"
-   }</t>
+    <t>{
+    "taskImpl": "com.mogoroom.tasktracker.task.UpdateRoomPriceTask",
+    "roomIds": "bysql",
+    "fetchRoomIdSql": " SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` = 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 AND fr.`onlineStatus` = 1 AND (fr.`mogoOfflineEndTime` IS NULL OR fr.`mogoOfflineEndTime` &lt; NOW()) AND (fr.`lockTime` IS NULL OR fr.`lockTime` &lt; NOW())",
+    "payTypeId": "1",
+    "newPrice": "105%"
+}</t>
   </si>
   <si>
     <t>一次性任务</t>
@@ -166,6 +173,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>更新自营房</t>
     </r>
     <r>
@@ -211,12 +224,13 @@
     <t>UpdateRoomPriceSelfFreeRoomsPayTypeFu1ya1Mogobao</t>
   </si>
   <si>
-    <t>{"taskImpl": "com.mogoroom.tasktracker.task.UpdateRoomPriceTask",
-      "roomIds": "bysql",
-      "fetchRoomIdSql": " SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` = 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 AND fr.`onlineStatus` = 1 AND (fr.`mogoOfflineEndTime` IS NULL OR fr.`mogoOfflineEndTime` &lt; NOW()) AND (fr.`lockTime` IS NULL OR fr.`lockTime` &lt; NOW())",
-      "payTypeId", "9",
-       "newPrice", "102%"
-   }</t>
+    <t>{
+    "taskImpl": "com.mogoroom.tasktracker.task.UpdateRoomPriceTask",
+    "roomIds": "bysql",
+    "fetchRoomIdSql": " SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` = 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 AND fr.`onlineStatus` = 1 AND (fr.`mogoOfflineEndTime` IS NULL OR fr.`mogoOfflineEndTime` &lt; NOW()) AND (fr.`lockTime` IS NULL OR fr.`lockTime` &lt; NOW())",
+    "payTypeId": "9",
+    "newPrice": "102%"
+}</t>
   </si>
   <si>
     <t>UpdateRoomPriceSelfNonfreeRoomsPayTypeFu3ya1
@@ -224,6 +238,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>更新自营房</t>
     </r>
     <r>
@@ -269,12 +289,13 @@
     <t>UpdateRoomPriceSelfNonfreeRoomsPayTypeFu3ya1</t>
   </si>
   <si>
-    <t>{"taskImpl": "com.mogoroom.tasktracker.task.UpdateRoomPriceTask",
-      "roomIds": "bysql",
-      "fetchRoomIdSql": "SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` &lt;&gt; 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 UNION SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` = 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 AND (fr.`onlineStatus` = 2 OR (fr.`mogoOfflineEndTime` IS NOT NULL AND fr.`mogoOfflineEndTime` &gt;= NOW()) OR (fr.`lockTime` IS NOT NULL AND fr.`lockTime` &gt;= NOW()))", 
-      "payTypeId", "1",
-       "newPrice", "105%"
-   }</t>
+    <t>{
+    "taskImpl": "com.mogoroom.tasktracker.task.UpdateRoomPriceTask",
+    "roomIds": "bysql",
+    "fetchRoomIdSql": "SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` &lt;&gt; 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 UNION SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` = 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 AND (fr.`onlineStatus` = 2 OR (fr.`mogoOfflineEndTime` IS NOT NULL AND fr.`mogoOfflineEndTime` &gt;= NOW()) OR (fr.`lockTime` IS NOT NULL AND fr.`lockTime` &gt;= NOW()))",
+    "payTypeId": "1",
+    "newPrice": "105%"
+}</t>
   </si>
   <si>
     <t>UpdateRoomPriceSelfNonfreeRoomsPayTypeFu1ya1Mogobao
@@ -282,6 +303,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>更新自营房</t>
     </r>
     <r>
@@ -327,12 +354,13 @@
     <t>UpdateRoomPriceSelfNonfreeRoomsPayTypeFu1ya1Mogobao</t>
   </si>
   <si>
-    <t>{"taskImpl": "com.mogoroom.tasktracker.task.UpdateRoomPriceTask",
-      "roomIds": "bysql",
-      "fetchRoomIdSql": "SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` &lt;&gt; 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 UNION SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` = 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 AND (fr.`onlineStatus` = 2 OR (fr.`mogoOfflineEndTime` IS NOT NULL AND fr.`mogoOfflineEndTime` &gt;= NOW()) OR (fr.`lockTime` IS NOT NULL AND fr.`lockTime` &gt;= NOW()))", 
-      "payTypeId", "9",
-       "newPrice", "102%"
-   }</t>
+    <t>{
+    "taskImpl": "com.mogoroom.tasktracker.task.UpdateRoomPriceTask",
+    "roomIds": "bysql",
+    "fetchRoomIdSql": "SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` &lt;&gt; 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 UNION SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` = 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 AND (fr.`onlineStatus` = 2 OR (fr.`mogoOfflineEndTime` IS NOT NULL AND fr.`mogoOfflineEndTime` &gt;= NOW()) OR (fr.`lockTime` IS NOT NULL AND fr.`lockTime` &gt;= NOW()))",
+    "payTypeId": "9",
+    "newPrice": "102%"
+}</t>
   </si>
 </sst>
 </file>
@@ -340,12 +368,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,13 +383,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -396,44 +417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -457,6 +440,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -528,6 +542,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +582,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -579,163 +756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,10 +942,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,133 +954,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1069,7 +1090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,9 +1100,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1103,7 +1121,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,28 +1130,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1461,298 +1467,298 @@
   <sheetPr/>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="11" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="16.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9" style="5"/>
-    <col min="11" max="11" width="86.75" style="4" customWidth="1"/>
-    <col min="12" max="12" width="33.375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="34.25" style="4" customWidth="1"/>
-    <col min="14" max="14" width="65.625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13" style="4" customWidth="1"/>
-    <col min="16" max="16" width="32.625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="44.375" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="42.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="16.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="86.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="34.25" style="3" customWidth="1"/>
+    <col min="14" max="14" width="65.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="16" width="32.625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="44.375" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27.75" spans="1:18">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="148.5" spans="1:18">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+    <row r="2" s="2" customFormat="1" ht="175.5" spans="1:18">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="148.5" spans="1:18">
-      <c r="A3" s="8"/>
-      <c r="B3" s="14" t="s">
+    <row r="3" s="2" customFormat="1" ht="175.5" spans="1:18">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="202.5" spans="1:18">
-      <c r="A4" s="8"/>
-      <c r="B4" s="14" t="s">
+    <row r="4" s="2" customFormat="1" ht="229.5" spans="1:18">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="202.5" spans="1:18">
-      <c r="A5" s="8"/>
-      <c r="B5" s="14" t="s">
+    <row r="5" s="2" customFormat="1" ht="229.5" spans="1:18">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="9" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD2"/>
+  <autoFilter ref="A1:XFD5"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/VersionRecords/Version hotfix160718/定时器/新增定时器.xlsx
+++ b/VersionRecords/Version hotfix160718/定时器/新增定时器.xlsx
@@ -292,7 +292,7 @@
     <t>{
     "taskImpl": "com.mogoroom.tasktracker.task.UpdateRoomPriceTask",
     "roomIds": "bysql",
-    "fetchRoomIdSql": "SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` &lt;&gt; 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 UNION SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` = 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 AND (fr.`onlineStatus` = 2 OR (fr.`mogoOfflineEndTime` IS NOT NULL AND fr.`mogoOfflineEndTime` &gt;= NOW()) OR (fr.`lockTime` IS NOT NULL AND fr.`lockTime` &gt;= NOW()))",
+    "fetchRoomIdSql": "SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` IN (2,4) AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 UNION SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` = 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 AND (fr.`onlineStatus` = 2 OR (fr.`mogoOfflineEndTime` IS NOT NULL AND fr.`mogoOfflineEndTime` &gt;= NOW()) OR (fr.`lockTime` IS NOT NULL AND fr.`lockTime` &gt;= NOW()))",
     "payTypeId": "1",
     "newPrice": "105%"
 }</t>
@@ -357,7 +357,7 @@
     <t>{
     "taskImpl": "com.mogoroom.tasktracker.task.UpdateRoomPriceTask",
     "roomIds": "bysql",
-    "fetchRoomIdSql": "SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` &lt;&gt; 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 UNION SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` = 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 AND (fr.`onlineStatus` = 2 OR (fr.`mogoOfflineEndTime` IS NOT NULL AND fr.`mogoOfflineEndTime` &gt;= NOW()) OR (fr.`lockTime` IS NOT NULL AND fr.`lockTime` &gt;= NOW()))",
+    "fetchRoomIdSql": "SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` IN (2,4) AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 UNION SELECT fr.id FROM flat_room fr LEFT JOIN flat_flats ff ON ff.id = fr.`flatsId` WHERE fr.`rentStatus` = 1 AND ff.`rentType` = 1 AND ff.`landlordId` = 1 AND fr.`status` = 1 AND fr.`roomType` = 1 AND (fr.`onlineStatus` = 2 OR (fr.`mogoOfflineEndTime` IS NOT NULL AND fr.`mogoOfflineEndTime` &gt;= NOW()) OR (fr.`lockTime` IS NOT NULL AND fr.`lockTime` &gt;= NOW()))",
     "payTypeId": "9",
     "newPrice": "102%"
 }</t>
@@ -368,10 +368,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1467,8 +1467,8 @@
   <sheetPr/>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
